--- a/FunctionalTesting+BugReporting_Task2.xlsx
+++ b/FunctionalTesting+BugReporting_Task2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stoqn\Desktop\SoftUni\ExamPrep2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\MyProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF7A82E-8828-45E8-BD85-42719ADC203D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46A2882-5E96-466B-BFEE-41B17972C91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-130" yWindow="-130" windowWidth="25860" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="235">
   <si>
     <t>Expected result:</t>
   </si>
@@ -130,30 +130,16 @@
     <t>1. Open Foodi application.</t>
   </si>
   <si>
-    <t>Home page should be navigated with no errors displayed.</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
     <t>UC1-2</t>
   </si>
   <si>
-    <t>Verify the homepage navbar</t>
-  </si>
-  <si>
-    <t>Navbar should be visible on the top with Foody Home Page link on the left and SIGN UP and LOG IN buttons on the right.</t>
-  </si>
-  <si>
     <t>UC1-3</t>
   </si>
   <si>
     <t>User is logged in</t>
-  </si>
-  <si>
-    <t>Navbar should be visible on the top with 
--profile button and Foody Home Page link on the left  
--ADD FOOD and LOGOUT buttons on the right.</t>
   </si>
   <si>
     <t>UC1-4</t>
@@ -185,57 +171,13 @@
     <t>UC2-1</t>
   </si>
   <si>
-    <t>Verify different ways to access Sing Up page</t>
-  </si>
-  <si>
-    <t>1. Open Foodi application.
-2. Click SIGN UP button on the navigation bar
-3. Click Abaut us picture</t>
-  </si>
-  <si>
-    <t>By clicking SIGN UP button or About us picture user is navigated to the Sign Up page</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Sign Up page is not accessible via About us picture</t>
-  </si>
-  <si>
-    <t>1. Open Foodi application.
-2. Click Abaut us picture</t>
-  </si>
-  <si>
-    <t>User is redirected to Sign Up page</t>
-  </si>
-  <si>
-    <t>User is not redirected to Sign Up page</t>
-  </si>
-  <si>
     <t>UC2-2</t>
-  </si>
-  <si>
-    <t>Verify all fields on the Sign Up page</t>
-  </si>
-  <si>
-    <t>1. Open Foodi application.
-2. Click SIGN UP button on the navigation bar or Abaut us picture</t>
-  </si>
-  <si>
-    <t>Sign Up page is successfully navigate. The user sees registration form with the following fields:
--Username
--Email
--First name
--Middle name
--Last name
--Password
--Reapeat password
--hyperlink to Terms and conditions document
--Sign Up button
--LOG IN HERE button</t>
   </si>
   <si>
     <t>UC2-3</t>
@@ -294,9 +236,6 @@
   </si>
   <si>
     <t>Register a user with all valid data and fiirst name with 31 characters</t>
-  </si>
-  <si>
-    <t>UC2-6/7</t>
   </si>
   <si>
     <t>User is successfully registered with first name with 31 characters</t>
@@ -384,9 +323,6 @@
     <t>BGID-2</t>
   </si>
   <si>
-    <t>BFID-3</t>
-  </si>
-  <si>
     <t>BGID-1</t>
   </si>
   <si>
@@ -467,17 +403,625 @@
     <t>UC3-8</t>
   </si>
   <si>
-    <t>User logged in</t>
-  </si>
-  <si>
-    <t>Verify the user data section on the left side</t>
+    <t>UC4-2</t>
+  </si>
+  <si>
+    <t>UC4-3</t>
+  </si>
+  <si>
+    <t>Home page is navigated with no errors displayed.</t>
+  </si>
+  <si>
+    <t>Navbar is visible on the top with Foody Home Page link on the left and SIGN UP and LOG IN buttons on the right.</t>
+  </si>
+  <si>
+    <t>Navbar is visible on the top with 
+-profile button and Foody Home Page link on the left  
+-ADD FOOD and LOGOUT buttons on the right.</t>
+  </si>
+  <si>
+    <t>Verify the homepage navbar for not logged in users</t>
+  </si>
+  <si>
+    <t>Verify the homepage navbar for logged in users</t>
+  </si>
+  <si>
+    <t>BGID-3</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>User is not logged in</t>
+  </si>
+  <si>
+    <t>Verify the sections for promoting</t>
+  </si>
+  <si>
+    <t>1. Open the application.
+2. Scroll down and inspect the sections for promoting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be four sections for promoting:
+ - Share your food;
+ - Describe Your Dish;
+ - Your Hub for Food Adventures;
+ - Sign Up Now. </t>
+  </si>
+  <si>
+    <t>UC1-6</t>
+  </si>
+  <si>
+    <t>UC1-7</t>
+  </si>
+  <si>
+    <t>UC1-8</t>
+  </si>
+  <si>
+    <t>UC1-9</t>
+  </si>
+  <si>
+    <t>UC1-10</t>
+  </si>
+  <si>
+    <t>Learn more button is not working</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Open the application.
+2. Click on '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Learn more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' button</t>
+    </r>
+  </si>
+  <si>
+    <t>User is navigated to About Us page</t>
+  </si>
+  <si>
+    <t>Home page scrolls below</t>
+  </si>
+  <si>
+    <t>Verify Sign Up button from sections for promoting</t>
+  </si>
+  <si>
+    <t>1. Open the application.
+2. Scroll down and inspect the sections for promoting.
+3. Click on 'Join Us' button from Sign Up Now section</t>
+  </si>
+  <si>
+    <t>User is navigated to Sign Up page</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Open the application.
+2. Scroll down to Sign Up now section.
+3. Click on the Picture with title '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Join Us</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>Nothing happens. The picture is not clickable.</t>
+  </si>
+  <si>
+    <t>Sign Up link on the promoting section  is not working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify LOG IN page button </t>
+  </si>
+  <si>
+    <t>1. Open the application.
+2. Click on 'LOG IN' link available on the right part of the NavBar</t>
+  </si>
+  <si>
+    <t>Log In page is opened.</t>
+  </si>
+  <si>
+    <t>User is logged in and no foods are created</t>
+  </si>
+  <si>
+    <t>Verify the message when no foods are created</t>
+  </si>
+  <si>
+    <t>Open the application</t>
+  </si>
+  <si>
+    <t>Verify the ADD FOOD buttob</t>
+  </si>
+  <si>
+    <t>1. Open the application.
+2. Click on ADD FOOD button</t>
+  </si>
+  <si>
+    <t>User is navigated to Add food page.</t>
+  </si>
+  <si>
+    <t>A message "There are no foods :(" appears below the Seach field.</t>
+  </si>
+  <si>
+    <t>Verify the labels on the Sign Up page</t>
+  </si>
+  <si>
+    <t>1. Open the application.
+2. Click on SIGN UP link.</t>
+  </si>
+  <si>
+    <t>Sign UP page is opened with following fields:
+ - Username;
+ - Email;
+ - First name;
+ - Middle Name;
+ - Last name;
+ - Password;
+ - Repaeat Password;
+ - Terms and conditions checkbox</t>
+  </si>
+  <si>
+    <t>Verify the Terms and conditions section on SIGN UP page</t>
+  </si>
+  <si>
+    <t>There should be a section with Terms and Conditions and user should be able to open it.</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Missing Terms and Conditions link</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Open the App.
+2. Click on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sign Up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> link.</t>
+    </r>
+  </si>
+  <si>
+    <t>Link for Terms and Conditions should be available on the page</t>
+  </si>
+  <si>
+    <t>There is no link for Terms and Conditions</t>
+  </si>
+  <si>
+    <t>Incorrect label for Repeat password</t>
+  </si>
+  <si>
+    <t>The label for repeating the password should be named 'Repeat Password'</t>
+  </si>
+  <si>
+    <t>The label for repeating the password is named 'Confirm password'</t>
+  </si>
+  <si>
+    <t>Verify required fields on the SIGN UP page</t>
+  </si>
+  <si>
+    <t>1. Open the application.
+2. Click on SIGN UP link.
+3. Click on 'SIGN UP' button</t>
+  </si>
+  <si>
+    <t>Validation message appears for the following fields:
+ - Username;
+ - Email;
+ - First name;
+ - Last name;
+ - Password;
+ - Repaeat Password;
+ - Terms and conditions checkbox</t>
+  </si>
+  <si>
+    <t>Missing checkbox for Terms and Conditions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Open the App.
+2. Click on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sign U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p link.</t>
+    </r>
+  </si>
+  <si>
+    <t>Checkbox to accept the Terms and Conditions should be present on the page and user should be able to click on it</t>
+  </si>
+  <si>
+    <t>There is no checkbox to accept the Terms and Conditions</t>
+  </si>
+  <si>
+    <t>BGID-4</t>
+  </si>
+  <si>
+    <t>BGID-5</t>
+  </si>
+  <si>
+    <t>UC2-9</t>
+  </si>
+  <si>
+    <t>BGID-3 &amp; BGID-4</t>
+  </si>
+  <si>
+    <t>BGID-6</t>
+  </si>
+  <si>
+    <t>Verify My Profile Page sections</t>
+  </si>
+  <si>
+    <t>Verify My Profile Page field initial values</t>
+  </si>
+  <si>
+    <t>Verify the following state of the fields:
+ - Empty profile picture;
+ - Username, FullName and Email fields showing the details of the user;
+ - Total food revues showing 0;
+ - About me section with value "You haven’t written anything about yourself…"
+ - About my food passion with value "You haven't written anything about your food experiences..."</t>
+  </si>
+  <si>
+    <t>Verify Edit Profile page fields</t>
+  </si>
+  <si>
+    <t>Edit profile page is opened with following fields present:
+ - First Name;
+ - Mid Name;
+ - Last Name;
+ - About;
+ - About food;
+ - Picture URL</t>
+  </si>
+  <si>
+    <t>Missing About food label</t>
+  </si>
+  <si>
+    <t>1. Open the app and login with user.
+2. Click on Profile button.
+3. Click on 'Edit' button.</t>
+  </si>
+  <si>
+    <t>Edit Profile page is opened and a label for About food is present. Additionally the Last Name field should show 'Last Name' label</t>
+  </si>
+  <si>
+    <t>Profile page is opened but there is no label for 'About Food' field. Additionally the Last Name field is not correct and display user's last name.</t>
+  </si>
+  <si>
+    <t>BGID-7</t>
+  </si>
+  <si>
+    <t>BGID-8</t>
+  </si>
+  <si>
+    <t>1. Login with test@test.bg.
+2. Click on 'My Profile' link.</t>
+  </si>
+  <si>
+    <t>1. Login with test1@test.bg.
+2. Click on 'My Ideas' link.</t>
+  </si>
+  <si>
+    <t>1. Login with test@test.bg.
+2. Click on 'My Profile' link.
+3. Click on 'Edit' button</t>
+  </si>
+  <si>
+    <t>Verify the following sections and fields are displayed:
+ - empty profile picture on the left;
+ - Username and an EDIT button below the picture;
+ - User's requisites with Full Name, Email and Total food revues fields
+ - About me section located below User's requisites;
+- About my food passion section below User's requisites.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the labels </t>
+  </si>
+  <si>
+    <t>1. Open the application and login with user.
+2. Click on 'ADD FOOD' link.</t>
+  </si>
+  <si>
+    <t>Add food page is opened with following fields:
+ - Food Name;
+ - Describe your food;
+ - Add a picture of your field;</t>
+  </si>
+  <si>
+    <t>Verify required fields</t>
+  </si>
+  <si>
+    <t>1. Open the application and login with user.
+2. Click on 'ADD FOOD' link.
+3. Click on 'Add' button</t>
+  </si>
+  <si>
+    <t>Validation message for Name and Description appears</t>
+  </si>
+  <si>
+    <t>Verify Name field with value on the upper boundary</t>
+  </si>
+  <si>
+    <t>1. Open the application and login with user.
+2. Click on 'ADD FOOD' link.
+3. Enter the following information:
+ - Name - 70 characters;
+ - Description - "some description"
+4. Click on 'Add' button</t>
+  </si>
+  <si>
+    <t>The food is created and Home page for logged in user is displayed with the newly created food</t>
+  </si>
+  <si>
+    <t>Verify Description field with value on the upper boundary</t>
+  </si>
+  <si>
+    <t>1. Open the application and login with user.
+2. Click on 'ADD FOOD' link.
+3. Enter the following information:
+ - Name - "Some name";
+ - Description - 400 symbols
+4. Click on 'Add' button</t>
+  </si>
+  <si>
+    <t>Verify Name and Description fields max length</t>
+  </si>
+  <si>
+    <t>1. Open the application and login with user.
+2. Click on 'ADD FOOD' link.
+3. Try to enter more than:
+  - 70 characters in Name field
+  - 400 characters in Description field-</t>
+  </si>
+  <si>
+    <t>User should not be able to enter more than specified symbols</t>
+  </si>
+  <si>
+    <t>Verify user is able to update the created food</t>
+  </si>
+  <si>
+    <t>1. Open the application and login with user.
+2. Click on 'Edit' button for created food.
+3. Update the Name of the field with value "Updated" and press 'Add' button</t>
+  </si>
+  <si>
+    <t>User Stoyan@test.bg is  existing</t>
+  </si>
+  <si>
+    <t>User Stoyan@test.bg is registered.</t>
+  </si>
+  <si>
+    <t>User Stoyan1@test.bg is newly registered and does not have any food sumitted</t>
+  </si>
+  <si>
+    <t>Home page for logged user is opened and the Name of the food is changed.</t>
+  </si>
+  <si>
+    <t>UC5-6</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Cannot edit food</t>
+  </si>
+  <si>
+    <t>1. Open the app and login with user.
+2. Click EDIT on already existing food.
+3. Update the title and press 'EDIT' button</t>
+  </si>
+  <si>
+    <t>The food title should be edited.</t>
+  </si>
+  <si>
+    <t>The food is not edited</t>
+  </si>
+  <si>
+    <t>BGID-9</t>
+  </si>
+  <si>
+    <t>UC6-1</t>
+  </si>
+  <si>
+    <t>Verify search functionality when no results are returned</t>
+  </si>
+  <si>
+    <t>1. Login with specified user.
+2. Click on search field and search for "ABCD"</t>
+  </si>
+  <si>
+    <t>No results are returned and following message is displayed: "There are no foods :( "</t>
+  </si>
+  <si>
+    <t>UC6-2</t>
+  </si>
+  <si>
+    <t>Verify search functionality when single result is returned</t>
+  </si>
+  <si>
+    <t>Only single result is returned</t>
+  </si>
+  <si>
+    <t>UC6-3</t>
+  </si>
+  <si>
+    <t>Verify search functionality when multiple result is returned</t>
+  </si>
+  <si>
+    <t>Only two results are returned</t>
+  </si>
+  <si>
+    <t>UC6-4</t>
+  </si>
+  <si>
+    <t>Verify buttons for existing food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login with specified user.
+</t>
+  </si>
+  <si>
+    <t>Food ABCD is present with following fields: 
+ - VIEW;
+ - EDIT;
+ - DELETE.</t>
+  </si>
+  <si>
+    <t>User Sotyan@test.bg is  existing. User have several foods created. Food with title ABCD is not existing</t>
+  </si>
+  <si>
+    <t>User Stoyan@test.bg is  existing. User have several foods created. Food with title ABCD is existing.</t>
+  </si>
+  <si>
+    <t>User Stoyan@test.bg is  existing. User have several foods created. Food with title ABCD and ABCDE are existing</t>
+  </si>
+  <si>
+    <t>User Stoyan@test.bg is  existing. User have several foods created. Food with title ABCD is not existing</t>
+  </si>
+  <si>
+    <t>Missing View button for created food</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Login with user.
+2. Click on '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add food</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' link.
+3. Enter valid title, description.
+4. Click on '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' button</t>
+    </r>
+  </si>
+  <si>
+    <t>User is navigated to Home page and the created food is shown with buttons to View, Edit and Delete.</t>
+  </si>
+  <si>
+    <t>User is navigated to Home page but there is no button for View the created food.</t>
+  </si>
+  <si>
+    <t>BGID-10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -655,10 +1199,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF5F6368"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="8">
@@ -862,7 +1437,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -999,9 +1574,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1024,6 +1596,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1051,11 +1629,32 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1066,26 +1665,18 @@
   <dxfs count="64">
     <dxf>
       <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1102,26 +1693,18 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1138,69 +1721,85 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1219,14 +1818,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1243,25 +1836,29 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1272,25 +1869,16 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1310,7 +1898,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1753,6 +2341,264 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1979,253 +2825,6 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
@@ -2564,45 +3163,45 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{77E3F8AE-34C0-48C0-B1F8-25014EBF98C4}" name="Table_134512" displayName="Table_134512" ref="A3:G18" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{77E3F8AE-34C0-48C0-B1F8-25014EBF98C4}" name="Table_134512" displayName="Table_134512" ref="A3:G18" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="7">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{596E79C9-8B6C-4BA5-B323-4B28E49EF1BD}" name="Test Case ID" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{E3029210-671C-4C13-B603-41C7845ED7B5}" name="Prerequisites" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{2F806AFD-0AFC-4A9C-A678-D202D2B75F53}" name="Title/Description" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{3DB40556-9FDC-4D8E-A6E1-4E74C530F732}" name="Steps" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{97767BD3-3587-42AE-988D-18376267F1B9}" name="Expected result:" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{E5DEAA54-D43B-4E60-844E-2C93936E7D4A}" name="Pass / Fail" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{AF31A816-D738-479D-8B7C-ED07D0B2FBC5}" name="Comments" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{596E79C9-8B6C-4BA5-B323-4B28E49EF1BD}" name="Test Case ID" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{E3029210-671C-4C13-B603-41C7845ED7B5}" name="Prerequisites" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{2F806AFD-0AFC-4A9C-A678-D202D2B75F53}" name="Title/Description" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{3DB40556-9FDC-4D8E-A6E1-4E74C530F732}" name="Steps" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{97767BD3-3587-42AE-988D-18376267F1B9}" name="Expected result:" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E5DEAA54-D43B-4E60-844E-2C93936E7D4A}" name="Pass / Fail" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{AF31A816-D738-479D-8B7C-ED07D0B2FBC5}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B9E1C6BE-AD66-4F3B-87A9-2D66380E85FC}" name="Table_134513" displayName="Table_134513" ref="A3:G18" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B9E1C6BE-AD66-4F3B-87A9-2D66380E85FC}" name="Table_134513" displayName="Table_134513" ref="A3:G18" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{50ABEF24-B0A5-4668-88D2-ACD923D12FB9}" name="Test Case ID" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{3A2065DD-84E3-4993-8AB8-E0B1332B3994}" name="Prerequisites" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{24E35003-9716-466D-88E5-70EB055E3FF0}" name="Title/Description" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{69CA701D-3575-42CE-A2B9-3B73BD6A1453}" name="Steps" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{2F692671-E2B6-4988-A126-E79CE0C13734}" name="Expected result:" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{32FF1AEC-3278-4424-AD10-27E58DD45CA3}" name="Pass / Fail" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{6403F2DA-9F2E-4A9C-BC71-3DADB39BB379}" name="Comments" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{50ABEF24-B0A5-4668-88D2-ACD923D12FB9}" name="Test Case ID" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{3A2065DD-84E3-4993-8AB8-E0B1332B3994}" name="Prerequisites" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{24E35003-9716-466D-88E5-70EB055E3FF0}" name="Title/Description" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{69CA701D-3575-42CE-A2B9-3B73BD6A1453}" name="Steps" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{2F692671-E2B6-4988-A126-E79CE0C13734}" name="Expected result:" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{32FF1AEC-3278-4424-AD10-27E58DD45CA3}" name="Pass / Fail" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{6403F2DA-9F2E-4A9C-BC71-3DADB39BB379}" name="Comments" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6D02E916-FA80-455E-8388-6D68520D3509}" name="Table_1345" displayName="Table_1345" ref="A3:G18" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="7" dataCellStyle="Style 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6D02E916-FA80-455E-8388-6D68520D3509}" name="Table_1345" displayName="Table_1345" ref="A3:G18" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" dataCellStyle="Style 1">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{38BA0351-11E4-4FC7-B8C9-C557AFE32E11}" name="Test Case ID" dataDxfId="6" dataCellStyle="Style 1"/>
-    <tableColumn id="2" xr3:uid="{77DF513B-1CA7-4A00-8001-53FAB06154B3}" name="Prerequisites" dataDxfId="5" dataCellStyle="Style 1"/>
-    <tableColumn id="3" xr3:uid="{CDA6AEF2-2F34-428D-B1C8-BFC98C1B6781}" name="Title/Description" dataDxfId="4" dataCellStyle="Style 1"/>
-    <tableColumn id="4" xr3:uid="{4A4F8599-CE3F-4CB7-AE1A-E336FECD466D}" name="Steps" dataDxfId="3" dataCellStyle="Style 1"/>
-    <tableColumn id="5" xr3:uid="{7E99A5A6-1595-4C06-9796-80A53CBDD22C}" name="Expected result:" dataDxfId="2" dataCellStyle="Style 1"/>
-    <tableColumn id="6" xr3:uid="{F1E667F6-3391-4682-80BD-29F51D899AA5}" name="Pass / Fail" dataDxfId="1" dataCellStyle="Style 1"/>
-    <tableColumn id="7" xr3:uid="{A4C75346-B365-48D4-A647-64D86F10F01F}" name="Comments" dataDxfId="0" dataCellStyle="Style 1"/>
+    <tableColumn id="1" xr3:uid="{38BA0351-11E4-4FC7-B8C9-C557AFE32E11}" name="Test Case ID" dataDxfId="36" dataCellStyle="Style 1"/>
+    <tableColumn id="2" xr3:uid="{77DF513B-1CA7-4A00-8001-53FAB06154B3}" name="Prerequisites" dataDxfId="35" dataCellStyle="Style 1"/>
+    <tableColumn id="3" xr3:uid="{CDA6AEF2-2F34-428D-B1C8-BFC98C1B6781}" name="Title/Description" dataDxfId="34" dataCellStyle="Style 1"/>
+    <tableColumn id="4" xr3:uid="{4A4F8599-CE3F-4CB7-AE1A-E336FECD466D}" name="Steps" dataDxfId="33" dataCellStyle="Style 1"/>
+    <tableColumn id="5" xr3:uid="{7E99A5A6-1595-4C06-9796-80A53CBDD22C}" name="Expected result:" dataDxfId="32" dataCellStyle="Style 1"/>
+    <tableColumn id="6" xr3:uid="{F1E667F6-3391-4682-80BD-29F51D899AA5}" name="Pass / Fail" dataDxfId="31" dataCellStyle="Style 1"/>
+    <tableColumn id="7" xr3:uid="{A4C75346-B365-48D4-A647-64D86F10F01F}" name="Comments" dataDxfId="30" dataCellStyle="Style 1"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2903,9 +3502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:F5"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2921,32 +3520,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -2980,141 +3579,205 @@
         <v>31</v>
       </c>
       <c r="E4" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>33</v>
       </c>
       <c r="G4" s="19"/>
       <c r="P4" s="37"/>
     </row>
     <row r="5" spans="1:16" s="36" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:16" s="36" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:16" s="36" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:16" s="36" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="1:16" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
+      <c r="G8" s="69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="38" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:16" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="25"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:16" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
+    <row r="10" spans="1:16" s="38" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="38" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:16" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="25"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+    <row r="12" spans="1:16" s="38" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" spans="1:16" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="25"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+    <row r="13" spans="1:16" s="38" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:16" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -3192,7 +3855,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3207,32 +3870,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="63"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -3252,188 +3915,204 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>116</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>49</v>
+        <v>148</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>102</v>
+        <v>44</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>168</v>
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>59</v>
+        <v>145</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>166</v>
+      </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>116</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>63</v>
+        <v>158</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>159</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>165</v>
+      </c>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>65</v>
+      <c r="C7" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>69</v>
+      <c r="C8" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>74</v>
+      <c r="C9" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="69"/>
+    </row>
+    <row r="11" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="C11" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="69" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:16" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -3514,7 +4193,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3529,32 +4208,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -3576,22 +4255,22 @@
     </row>
     <row r="4" spans="1:16" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="35"/>
       <c r="O4" s="47"/>
@@ -3599,22 +4278,22 @@
     </row>
     <row r="5" spans="1:16" s="46" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="20"/>
       <c r="O5" s="47"/>
@@ -3622,131 +4301,131 @@
     </row>
     <row r="6" spans="1:16" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="20"/>
       <c r="P6" s="47"/>
     </row>
     <row r="7" spans="1:16" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="39" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>101</v>
+        <v>44</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>179</v>
       </c>
       <c r="P7" s="47"/>
     </row>
     <row r="8" spans="1:16" s="46" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:16" s="46" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:16" s="46" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="39" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="20"/>
     </row>
@@ -3838,9 +4517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C208801D-AB81-4FA7-B692-32F813095CDD}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3855,32 +4534,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" s="32" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="30" t="s">
@@ -3900,19 +4579,25 @@
       </c>
       <c r="P3" s="33"/>
     </row>
-    <row r="4" spans="1:16" s="23" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
-        <v>111</v>
+    <row r="4" spans="1:16" s="23" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="74" t="s">
+        <v>95</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+        <v>170</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>32</v>
+      </c>
       <c r="G4" s="22"/>
       <c r="O4" s="24" t="s">
         <v>2</v>
@@ -3921,26 +4606,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="23" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+    <row r="5" spans="1:16" s="23" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>32</v>
+      </c>
       <c r="G5" s="22"/>
       <c r="P5" s="24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="23" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+    <row r="6" spans="1:16" s="23" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A6" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>180</v>
+      </c>
       <c r="P6" s="24" t="s">
         <v>4</v>
       </c>
@@ -4080,7 +4791,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4094,102 +4805,164 @@
     <col min="7" max="7" width="40.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-    </row>
-    <row r="2" spans="1:7" s="51" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-    </row>
-    <row r="3" spans="1:7" s="55" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+    </row>
+    <row r="2" spans="1:7" s="50" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+    </row>
+    <row r="3" spans="1:7" s="54" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="28"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="22"/>
+      <c r="B4" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="G4" s="27"/>
     </row>
-    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="28"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="22"/>
+      <c r="B5" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="G5" s="27"/>
     </row>
-    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="28"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="28"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="G7" s="27"/>
     </row>
-    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="28"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="22"/>
+      <c r="B8" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="G8" s="27"/>
     </row>
-    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="28"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="27"/>
+      <c r="B9" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="69" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="28"/>
@@ -4278,7 +5051,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2 F4:F18" xr:uid="{0D250E04-2D09-4357-985A-E666B776A8EF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2 F10:F18" xr:uid="{0D250E04-2D09-4357-985A-E666B776A8EF}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4294,7 +5067,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4309,83 +5082,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="57" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="34"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="20"/>
+    <row r="4" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="20"/>
+    <row r="5" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="34"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="20"/>
+    <row r="6" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="G6" s="20"/>
     </row>
-    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="34"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+    <row r="7" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="34"/>
@@ -4508,10 +5331,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4528,28 +5351,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" s="44" customFormat="1" ht="31" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
@@ -4580,174 +5403,286 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>47</v>
+    <row r="4" spans="1:9" s="70" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>77</v>
+        <v>128</v>
+      </c>
+      <c r="I4" s="69"/>
+    </row>
+    <row r="5" spans="1:9" s="72" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>121</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>79</v>
+        <v>134</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
-        <v>101</v>
+        <v>133</v>
+      </c>
+      <c r="I5" s="69"/>
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="69" t="s">
+        <v>114</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+        <v>151</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" s="69"/>
+    </row>
+    <row r="7" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>157</v>
+      </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+    <row r="9" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+    <row r="10" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.35">
+      <c r="A11" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="76" t="s">
+        <v>178</v>
+      </c>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="50"/>
+    <row r="12" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>210</v>
+      </c>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+    <row r="13" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -4760,16 +5695,38 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D15" xr:uid="{7166E936-265C-40A3-ADDD-B5DFC91A6F1C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D17" xr:uid="{7166E936-265C-40A3-ADDD-B5DFC91A6F1C}">
       <formula1>"Blocking, Critical, High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C15" xr:uid="{2D6D447B-4324-4B13-B0C4-3E6D9E6576A3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C17" xr:uid="{2D6D447B-4324-4B13-B0C4-3E6D9E6576A3}">
       <formula1>"High, Medium, Low, Not Planned"</formula1>
     </dataValidation>
   </dataValidations>
